--- a/Firmware/Documentación/Cronograma-Firmware.xlsx
+++ b/Firmware/Documentación/Cronograma-Firmware.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6694302-B61E-41C2-A004-B68AF0476FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A80C74-D719-4370-A165-A835A9C5493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,6 +582,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -617,15 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1039,7 +1039,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1076,66 +1076,66 @@
         <v>3</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="32" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1162,12 +1162,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1368,10 +1368,10 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7">
@@ -1381,16 +1381,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="36">
+      <c r="G6" s="24">
         <v>0.25</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7">
@@ -1404,10 +1404,10 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="7">
@@ -1421,10 +1421,10 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7">
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7">
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="7">
@@ -1476,7 +1476,7 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7">
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7">
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="7">
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9">
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7">
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7">
